--- a/requirements/Requirements Excel/Requirement Picture Preprocessor.xlsx
+++ b/requirements/Requirements Excel/Requirement Picture Preprocessor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C762B6-1EED-495E-88A2-AD8CCD2E591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7135D804-5A01-4E04-93BB-736D3940C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>Packages numpy, os and PIL need to be loaded</t>
   </si>
   <si>
-    <t>R3</t>
+    <t>R6</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
